--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>Cr2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.333165588508177</v>
+        <v>0.3332025</v>
       </c>
       <c r="H2">
-        <v>0.333165588508177</v>
+        <v>0.666405</v>
       </c>
       <c r="I2">
-        <v>0.4832957596048481</v>
+        <v>0.4292193749271382</v>
       </c>
       <c r="J2">
-        <v>0.4832957596048481</v>
+        <v>0.3339214328449152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.892363165631572</v>
+        <v>0.8923635000000001</v>
       </c>
       <c r="N2">
-        <v>0.892363165631572</v>
+        <v>1.784727</v>
       </c>
       <c r="O2">
-        <v>0.4789609722167717</v>
+        <v>0.3792348257544297</v>
       </c>
       <c r="P2">
-        <v>0.4789609722167717</v>
+        <v>0.3016563721599398</v>
       </c>
       <c r="Q2">
-        <v>0.2973046992406626</v>
+        <v>0.29733774910875</v>
       </c>
       <c r="R2">
-        <v>0.2973046992406626</v>
+        <v>1.189350996435</v>
       </c>
       <c r="S2">
-        <v>0.2314798068885812</v>
+        <v>0.1627749348609185</v>
       </c>
       <c r="T2">
-        <v>0.2314798068885812</v>
+        <v>0.1007295280184461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,196 +590,196 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.333165588508177</v>
+        <v>0.3332025</v>
       </c>
       <c r="H3">
-        <v>0.333165588508177</v>
+        <v>0.666405</v>
       </c>
       <c r="I3">
-        <v>0.4832957596048481</v>
+        <v>0.4292193749271382</v>
       </c>
       <c r="J3">
-        <v>0.4832957596048481</v>
+        <v>0.3339214328449152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.97075975543119</v>
+        <v>0.15979</v>
       </c>
       <c r="N3">
-        <v>0.97075975543119</v>
+        <v>0.47937</v>
       </c>
       <c r="O3">
-        <v>0.5210390277832283</v>
+        <v>0.06790722929310794</v>
       </c>
       <c r="P3">
-        <v>0.5210390277832283</v>
+        <v>0.08102360479911513</v>
       </c>
       <c r="Q3">
-        <v>0.3234237452182864</v>
+        <v>0.05324242747500001</v>
       </c>
       <c r="R3">
-        <v>0.3234237452182864</v>
+        <v>0.31945456485</v>
       </c>
       <c r="S3">
-        <v>0.2518159527162668</v>
+        <v>0.02914709851022164</v>
       </c>
       <c r="T3">
-        <v>0.2518159527162668</v>
+        <v>0.02705551820878067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.118804093551113</v>
+        <v>0.3332025</v>
       </c>
       <c r="H4">
-        <v>0.118804093551113</v>
+        <v>0.666405</v>
       </c>
       <c r="I4">
-        <v>0.1723392709734828</v>
+        <v>0.4292193749271382</v>
       </c>
       <c r="J4">
-        <v>0.1723392709734828</v>
+        <v>0.3339214328449152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.892363165631572</v>
+        <v>1.050507666666667</v>
       </c>
       <c r="N4">
-        <v>0.892363165631572</v>
+        <v>3.151523</v>
       </c>
       <c r="O4">
-        <v>0.4789609722167717</v>
+        <v>0.4464426121440712</v>
       </c>
       <c r="P4">
-        <v>0.4789609722167717</v>
+        <v>0.5326736217688252</v>
       </c>
       <c r="Q4">
-        <v>0.1060163970112606</v>
+        <v>0.3500317808025</v>
       </c>
       <c r="R4">
-        <v>0.1060163970112606</v>
+        <v>2.100190684815</v>
       </c>
       <c r="S4">
-        <v>0.08254378477658898</v>
+        <v>0.191621818925317</v>
       </c>
       <c r="T4">
-        <v>0.08254378477658898</v>
+        <v>0.1778711390197365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.118804093551113</v>
+        <v>0.3332025</v>
       </c>
       <c r="H5">
-        <v>0.118804093551113</v>
+        <v>0.666405</v>
       </c>
       <c r="I5">
-        <v>0.1723392709734828</v>
+        <v>0.4292193749271382</v>
       </c>
       <c r="J5">
-        <v>0.1723392709734828</v>
+        <v>0.3339214328449152</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.97075975543119</v>
+        <v>0.250402</v>
       </c>
       <c r="N5">
-        <v>0.97075975543119</v>
+        <v>0.500804</v>
       </c>
       <c r="O5">
-        <v>0.5210390277832283</v>
+        <v>0.1064153328083911</v>
       </c>
       <c r="P5">
-        <v>0.5210390277832283</v>
+        <v>0.08464640127211977</v>
       </c>
       <c r="Q5">
-        <v>0.1153302327999027</v>
+        <v>0.083434572405</v>
       </c>
       <c r="R5">
-        <v>0.1153302327999027</v>
+        <v>0.33373828962</v>
       </c>
       <c r="S5">
-        <v>0.08979548619689383</v>
+        <v>0.04567552263068102</v>
       </c>
       <c r="T5">
-        <v>0.08979548619689383</v>
+        <v>0.02826524759795188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,111 +788,979 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.237392022211775</v>
+        <v>0.01833433333333333</v>
       </c>
       <c r="H6">
-        <v>0.237392022211775</v>
+        <v>0.055003</v>
       </c>
       <c r="I6">
-        <v>0.3443649694216691</v>
+        <v>0.0236176231962219</v>
       </c>
       <c r="J6">
-        <v>0.3443649694216691</v>
+        <v>0.02756083848525876</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.892363165631572</v>
+        <v>0.8923635000000001</v>
       </c>
       <c r="N6">
-        <v>0.892363165631572</v>
+        <v>1.784727</v>
       </c>
       <c r="O6">
-        <v>0.4789609722167717</v>
+        <v>0.3792348257544297</v>
       </c>
       <c r="P6">
-        <v>0.4789609722167717</v>
+        <v>0.3016563721599398</v>
       </c>
       <c r="Q6">
-        <v>0.21183989643658</v>
+        <v>0.0163608898635</v>
       </c>
       <c r="R6">
-        <v>0.21183989643658</v>
+        <v>0.09816533918100001</v>
       </c>
       <c r="S6">
-        <v>0.1649373805516015</v>
+        <v>0.008956625217552991</v>
       </c>
       <c r="T6">
-        <v>0.1649373805516015</v>
+        <v>0.008313902551149211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01833433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.055003</v>
+      </c>
+      <c r="I7">
+        <v>0.0236176231962219</v>
+      </c>
+      <c r="J7">
+        <v>0.02756083848525876</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.15979</v>
+      </c>
+      <c r="N7">
+        <v>0.47937</v>
+      </c>
+      <c r="O7">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P7">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q7">
+        <v>0.002929643123333334</v>
+      </c>
+      <c r="R7">
+        <v>0.02636678811</v>
+      </c>
+      <c r="S7">
+        <v>0.001603807353744065</v>
+      </c>
+      <c r="T7">
+        <v>0.002233078485361849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01833433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.055003</v>
+      </c>
+      <c r="I8">
+        <v>0.0236176231962219</v>
+      </c>
+      <c r="J8">
+        <v>0.02756083848525876</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.151523</v>
+      </c>
+      <c r="O8">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P8">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q8">
+        <v>0.01926035772988889</v>
+      </c>
+      <c r="R8">
+        <v>0.173343219569</v>
+      </c>
+      <c r="S8">
+        <v>0.01054391339235571</v>
+      </c>
+      <c r="T8">
+        <v>0.01468093165492841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01833433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.055003</v>
+      </c>
+      <c r="I9">
+        <v>0.0236176231962219</v>
+      </c>
+      <c r="J9">
+        <v>0.02756083848525876</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.250402</v>
+      </c>
+      <c r="N9">
+        <v>0.500804</v>
+      </c>
+      <c r="O9">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P9">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q9">
+        <v>0.004590953735333334</v>
+      </c>
+      <c r="R9">
+        <v>0.027545722412</v>
+      </c>
+      <c r="S9">
+        <v>0.002513277232569131</v>
+      </c>
+      <c r="T9">
+        <v>0.002332925793819295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.123411</v>
+      </c>
+      <c r="H10">
+        <v>0.370233</v>
+      </c>
+      <c r="I10">
+        <v>0.1589735739651805</v>
+      </c>
+      <c r="J10">
+        <v>0.1855159157666456</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.784727</v>
+      </c>
+      <c r="O10">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P10">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q10">
+        <v>0.1101274718985</v>
+      </c>
+      <c r="R10">
+        <v>0.6607648313910002</v>
+      </c>
+      <c r="S10">
+        <v>0.06028831562224417</v>
+      </c>
+      <c r="T10">
+        <v>0.0559620581280953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.123411</v>
+      </c>
+      <c r="H11">
+        <v>0.370233</v>
+      </c>
+      <c r="I11">
+        <v>0.1589735739651805</v>
+      </c>
+      <c r="J11">
+        <v>0.1855159157666456</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.15979</v>
+      </c>
+      <c r="N11">
+        <v>0.47937</v>
+      </c>
+      <c r="O11">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P11">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q11">
+        <v>0.01971984369</v>
+      </c>
+      <c r="R11">
+        <v>0.17747859321</v>
+      </c>
+      <c r="S11">
+        <v>0.01079545493879837</v>
+      </c>
+      <c r="T11">
+        <v>0.01503116824302263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.123411</v>
+      </c>
+      <c r="H12">
+        <v>0.370233</v>
+      </c>
+      <c r="I12">
+        <v>0.1589735739651805</v>
+      </c>
+      <c r="J12">
+        <v>0.1855159157666456</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.151523</v>
+      </c>
+      <c r="O12">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P12">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q12">
+        <v>0.129644201651</v>
+      </c>
+      <c r="R12">
+        <v>1.166797814859</v>
+      </c>
+      <c r="S12">
+        <v>0.07097257762289388</v>
+      </c>
+      <c r="T12">
+        <v>0.09881943474717941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.237392022211775</v>
-      </c>
-      <c r="H7">
-        <v>0.237392022211775</v>
-      </c>
-      <c r="I7">
-        <v>0.3443649694216691</v>
-      </c>
-      <c r="J7">
-        <v>0.3443649694216691</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.97075975543119</v>
-      </c>
-      <c r="N7">
-        <v>0.97075975543119</v>
-      </c>
-      <c r="O7">
-        <v>0.5210390277832283</v>
-      </c>
-      <c r="P7">
-        <v>0.5210390277832283</v>
-      </c>
-      <c r="Q7">
-        <v>0.2304506214236183</v>
-      </c>
-      <c r="R7">
-        <v>0.2304506214236183</v>
-      </c>
-      <c r="S7">
-        <v>0.1794275888700676</v>
-      </c>
-      <c r="T7">
-        <v>0.1794275888700676</v>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.123411</v>
+      </c>
+      <c r="H13">
+        <v>0.370233</v>
+      </c>
+      <c r="I13">
+        <v>0.1589735739651805</v>
+      </c>
+      <c r="J13">
+        <v>0.1855159157666456</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.250402</v>
+      </c>
+      <c r="N13">
+        <v>0.500804</v>
+      </c>
+      <c r="O13">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P13">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q13">
+        <v>0.030902361222</v>
+      </c>
+      <c r="R13">
+        <v>0.185414167332</v>
+      </c>
+      <c r="S13">
+        <v>0.01691722578124406</v>
+      </c>
+      <c r="T13">
+        <v>0.01570325464834825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05942966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.178289</v>
+      </c>
+      <c r="I14">
+        <v>0.07655514102923852</v>
+      </c>
+      <c r="J14">
+        <v>0.08933684222130248</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.784727</v>
+      </c>
+      <c r="O14">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P14">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q14">
+        <v>0.0530328653505</v>
+      </c>
+      <c r="R14">
+        <v>0.318197192103</v>
+      </c>
+      <c r="S14">
+        <v>0.02903237556882907</v>
+      </c>
+      <c r="T14">
+        <v>0.02694902772470305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05942966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.178289</v>
+      </c>
+      <c r="I15">
+        <v>0.07655514102923852</v>
+      </c>
+      <c r="J15">
+        <v>0.08933684222130248</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.15979</v>
+      </c>
+      <c r="N15">
+        <v>0.47937</v>
+      </c>
+      <c r="O15">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P15">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q15">
+        <v>0.009496266436666668</v>
+      </c>
+      <c r="R15">
+        <v>0.08546639793000001</v>
+      </c>
+      <c r="S15">
+        <v>0.005198647515438716</v>
+      </c>
+      <c r="T15">
+        <v>0.007238392998139715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05942966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.178289</v>
+      </c>
+      <c r="I16">
+        <v>0.07655514102923852</v>
+      </c>
+      <c r="J16">
+        <v>0.08933684222130248</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.151523</v>
+      </c>
+      <c r="O16">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P16">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q16">
+        <v>0.06243132046077778</v>
+      </c>
+      <c r="R16">
+        <v>0.561881884147</v>
+      </c>
+      <c r="S16">
+        <v>0.034177477134151</v>
+      </c>
+      <c r="T16">
+        <v>0.04758737930341129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05942966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.178289</v>
+      </c>
+      <c r="I17">
+        <v>0.07655514102923852</v>
+      </c>
+      <c r="J17">
+        <v>0.08933684222130248</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.250402</v>
+      </c>
+      <c r="N17">
+        <v>0.500804</v>
+      </c>
+      <c r="O17">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P17">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q17">
+        <v>0.01488130739266667</v>
+      </c>
+      <c r="R17">
+        <v>0.08928784435600001</v>
+      </c>
+      <c r="S17">
+        <v>0.008146640810819734</v>
+      </c>
+      <c r="T17">
+        <v>0.007562042195048421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2419213333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.725764</v>
+      </c>
+      <c r="I18">
+        <v>0.3116342868822208</v>
+      </c>
+      <c r="J18">
+        <v>0.3636649706818781</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.784727</v>
+      </c>
+      <c r="O18">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P18">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q18">
+        <v>0.215881767738</v>
+      </c>
+      <c r="R18">
+        <v>1.295290606428</v>
+      </c>
+      <c r="S18">
+        <v>0.118182574484885</v>
+      </c>
+      <c r="T18">
+        <v>0.1097018557375462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2419213333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.725764</v>
+      </c>
+      <c r="I19">
+        <v>0.3116342868822208</v>
+      </c>
+      <c r="J19">
+        <v>0.3636649706818781</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.15979</v>
+      </c>
+      <c r="N19">
+        <v>0.47937</v>
+      </c>
+      <c r="O19">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P19">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q19">
+        <v>0.03865660985333334</v>
+      </c>
+      <c r="R19">
+        <v>0.34790948868</v>
+      </c>
+      <c r="S19">
+        <v>0.02116222097490515</v>
+      </c>
+      <c r="T19">
+        <v>0.02946544686381028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2419213333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.725764</v>
+      </c>
+      <c r="I20">
+        <v>0.3116342868822208</v>
+      </c>
+      <c r="J20">
+        <v>0.3636649706818781</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.151523</v>
+      </c>
+      <c r="O20">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P20">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q20">
+        <v>0.2541402153968889</v>
+      </c>
+      <c r="R20">
+        <v>2.287261938572</v>
+      </c>
+      <c r="S20">
+        <v>0.1391268250693535</v>
+      </c>
+      <c r="T20">
+        <v>0.1937147370435696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2419213333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.725764</v>
+      </c>
+      <c r="I21">
+        <v>0.3116342868822208</v>
+      </c>
+      <c r="J21">
+        <v>0.3636649706818781</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.250402</v>
+      </c>
+      <c r="N21">
+        <v>0.500804</v>
+      </c>
+      <c r="O21">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P21">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q21">
+        <v>0.06057758570933333</v>
+      </c>
+      <c r="R21">
+        <v>0.363465514256</v>
+      </c>
+      <c r="S21">
+        <v>0.03316266635307716</v>
+      </c>
+      <c r="T21">
+        <v>0.03078293103695192</v>
       </c>
     </row>
   </sheetData>
